--- a/trunk/Org. Interna/[Alimnova]Configuracion y versionamiento.xlsx
+++ b/trunk/Org. Interna/[Alimnova]Configuracion y versionamiento.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="173">
   <si>
     <t>SPMP</t>
   </si>
@@ -535,6 +535,15 @@
   </si>
   <si>
     <t>1.6.1</t>
+  </si>
+  <si>
+    <t>SDD[Alimnova]SubastarServidorV0.4.2</t>
+  </si>
+  <si>
+    <t>SubastarServidor</t>
+  </si>
+  <si>
+    <t>0.4.2</t>
   </si>
 </sst>
 </file>
@@ -1143,52 +1152,52 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1805,9 +1814,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="15" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H78" sqref="H78:I78"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="15" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1828,127 +1837,127 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:9">
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
     </row>
     <row r="3" spans="3:9">
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="66" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="74"/>
-      <c r="G3" s="75"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="3:9">
-      <c r="C4" s="71"/>
+      <c r="C4" s="67"/>
       <c r="D4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="73" t="s">
+      <c r="E4" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="74"/>
-      <c r="G4" s="75"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="3:9">
-      <c r="C5" s="72"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="71"/>
     </row>
     <row r="6" spans="3:9">
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="66" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="65" t="s">
+      <c r="E6" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="66"/>
-      <c r="G6" s="67"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="74"/>
     </row>
     <row r="7" spans="3:9">
-      <c r="C7" s="71"/>
+      <c r="C7" s="67"/>
       <c r="D7" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="66"/>
-      <c r="G7" s="67"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="74"/>
     </row>
     <row r="8" spans="3:9">
-      <c r="C8" s="71"/>
+      <c r="C8" s="67"/>
       <c r="D8" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="65" t="s">
+      <c r="E8" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="66"/>
-      <c r="G8" s="67"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="74"/>
     </row>
     <row r="9" spans="3:9">
-      <c r="C9" s="71"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="65" t="s">
+      <c r="E9" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="66"/>
-      <c r="G9" s="67"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="74"/>
     </row>
     <row r="10" spans="3:9">
-      <c r="C10" s="71"/>
+      <c r="C10" s="67"/>
       <c r="D10" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="65" t="s">
+      <c r="E10" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="66"/>
-      <c r="G10" s="67"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
     </row>
     <row r="11" spans="3:9">
-      <c r="C11" s="71"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="65" t="s">
+      <c r="E11" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="67"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="74"/>
     </row>
     <row r="12" spans="3:9">
-      <c r="C12" s="72"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="66" t="s">
+      <c r="E12" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="66"/>
-      <c r="G12" s="67"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="74"/>
     </row>
     <row r="13" spans="3:9">
       <c r="E13" s="29"/>
@@ -1956,15 +1965,15 @@
       <c r="G13" s="29"/>
     </row>
     <row r="14" spans="3:9">
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
     </row>
     <row r="15" spans="3:9">
       <c r="C15" s="4" t="s">
@@ -3319,7 +3328,7 @@
       <c r="H73" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="I73" s="47" t="s">
+      <c r="I73" s="58" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3342,7 +3351,7 @@
       <c r="H74" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="I74" s="47" t="s">
+      <c r="I74" s="58" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3365,7 +3374,7 @@
       <c r="H75" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="I75" s="14" t="s">
+      <c r="I75" s="58" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3388,7 +3397,7 @@
       <c r="H76" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="I76" s="14" t="s">
+      <c r="I76" s="58" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3411,7 +3420,7 @@
       <c r="H77" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="I77" s="14" t="s">
+      <c r="I77" s="58" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3434,17 +3443,32 @@
       <c r="H78" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="I78" s="14" t="s">
+      <c r="I78" s="58" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="3:9">
-      <c r="C79" s="7"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="59"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="14"/>
+      <c r="C79" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G79" s="59">
+        <v>40307.938888888886</v>
+      </c>
+      <c r="H79" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" s="58" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="80" spans="3:9">
       <c r="C80" s="7"/>
@@ -3481,6 +3505,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="E3:G3"/>
@@ -3488,13 +3519,6 @@
     <mergeCell ref="C6:C12"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E6:G6"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H16:H17" location="'1. Documentos'!J9" display="William Jiménez"/>
@@ -3542,6 +3566,7 @@
     <hyperlink ref="H76" location="'1. Documentos'!J6" display="Laura Arias"/>
     <hyperlink ref="H77" location="'1. Documentos'!J6" display="Laura Arias"/>
     <hyperlink ref="H78" location="'1. Documentos'!J6" display="Laura Arias"/>
+    <hyperlink ref="H79" location="'1. Documentos'!J9" display="William Jiménez"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
